--- a/data/evaluation/evaluation_North_Winter_Apples.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Apples.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2051.839826839827</v>
+        <v>2170.88816017316</v>
       </c>
       <c r="C3" t="n">
-        <v>10682938.96759806</v>
+        <v>12340876.71363695</v>
       </c>
       <c r="D3" t="n">
-        <v>3268.47655148359</v>
+        <v>3512.958399075763</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1069300689045196</v>
+        <v>-0.03166983820966052</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2101.400140536301</v>
+        <v>1977.941046430455</v>
       </c>
       <c r="C4" t="n">
-        <v>7614704.994236009</v>
+        <v>7311211.510580943</v>
       </c>
       <c r="D4" t="n">
-        <v>2759.475492595651</v>
+        <v>2703.925204324436</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3634276031023912</v>
+        <v>0.3887989831465756</v>
       </c>
     </row>
     <row r="5">
